--- a/Prospects/Luminor/Demo Prototype v2.4 - Revised.xlsx
+++ b/Prospects/Luminor/Demo Prototype v2.4 - Revised.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="LUMINOR DEMO PROTOTYPE" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
   <si>
     <t>Refresh eTrader Luminor Branding based on updated Luminor Branding</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>EMIR Reporting Data</t>
-  </si>
-  <si>
-    <t>JavaFX UI for positions and deal capture</t>
   </si>
   <si>
     <t>No.</t>
@@ -673,9 +670,6 @@
     <t>Port MT202 message from BOI branch to SAL - Text May need revision</t>
   </si>
   <si>
-    <t>Screenshots of New Screens for Trader - MWT Sit with CMF</t>
-  </si>
-  <si>
     <t>MT Speak with DCF</t>
   </si>
   <si>
@@ -686,6 +680,54 @@
   </si>
   <si>
     <t>SWIFT MT202 Confirmation Message (FX Trades Only)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>MWT to send text</t>
+  </si>
+  <si>
+    <t>Field Agreed - Coding in progress</t>
+  </si>
+  <si>
+    <t>MWT to do</t>
+  </si>
+  <si>
+    <t>JN - On track</t>
+  </si>
+  <si>
+    <t>Ash has seen proto</t>
+  </si>
+  <si>
+    <t>RH Monday</t>
+  </si>
+  <si>
+    <t>Ready to test - MWT to activate once we have war file</t>
+  </si>
+  <si>
+    <t>Raise BZ's</t>
+  </si>
+  <si>
+    <t>BS Config give to Matt</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Screenshots for JavaFX UI for positions and deal capture</t>
+  </si>
+  <si>
+    <t>Screenshots of New Screens for Trader - RH Sit with CMF</t>
+  </si>
+  <si>
+    <t>Progress Notes</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -879,7 +921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1013,13 +1055,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF322A77"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF322A77"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF322A77"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF322A77"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF322A77"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF322A77"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1181,6 +1249,27 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1190,26 +1279,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1217,7 +1291,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1311,23 +1388,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:K19" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:L19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:L19">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A4:K19">
     <sortCondition ref="C3:C19"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Request_x000a_Type" dataDxfId="10"/>
-    <tableColumn id="2" name="Description" dataDxfId="9"/>
-    <tableColumn id="11" name="Rank" dataDxfId="8"/>
-    <tableColumn id="10" name="UseCase(s)" dataDxfId="7"/>
-    <tableColumn id="3" name="BZ" dataDxfId="6"/>
-    <tableColumn id="4" name="Notes" dataDxfId="5"/>
-    <tableColumn id="5" name="WHO" dataDxfId="4"/>
-    <tableColumn id="6" name="Workaround?" dataDxfId="3"/>
-    <tableColumn id="7" name="Delivered" dataDxfId="2"/>
-    <tableColumn id="8" name="Installed &amp; Tested" dataDxfId="1"/>
-    <tableColumn id="9" name="Accepted" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Request_x000a_Type" dataDxfId="11"/>
+    <tableColumn id="2" name="Description" dataDxfId="10"/>
+    <tableColumn id="11" name="Rank" dataDxfId="9"/>
+    <tableColumn id="10" name="UseCase(s)" dataDxfId="8"/>
+    <tableColumn id="3" name="BZ" dataDxfId="7"/>
+    <tableColumn id="4" name="Notes" dataDxfId="6"/>
+    <tableColumn id="5" name="WHO" dataDxfId="5"/>
+    <tableColumn id="6" name="Workaround?" dataDxfId="4"/>
+    <tableColumn id="7" name="Delivered" dataDxfId="3"/>
+    <tableColumn id="8" name="Installed &amp; Tested" dataDxfId="2"/>
+    <tableColumn id="9" name="Accepted" dataDxfId="1"/>
+    <tableColumn id="12" name="Progress Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1633,10 +1717,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1648,25 +1732,26 @@
     <col min="5" max="5" width="9.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="32" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>1</v>
@@ -1675,24 +1760,27 @@
         <v>6</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>0</v>
@@ -1701,21 +1789,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="38">
         <v>26968</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1724,41 +1815,47 @@
         <v>2</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="38">
         <v>26921</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="45">
         <v>3</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="38">
         <v>26970</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -1767,21 +1864,25 @@
         <v>4</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="38">
-        <v>24147</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E7" s="38"/>
       <c r="F7" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -1790,90 +1891,99 @@
         <v>5</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="38">
         <v>26887</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="29" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="45">
         <v>6</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="38">
         <v>26974</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="45">
         <v>8</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="38">
         <v>26976</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="45">
         <v>9</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="38">
         <v>26977</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>3</v>
@@ -1882,21 +1992,21 @@
         <v>10</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="38">
         <v>24147</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>4</v>
@@ -1905,21 +2015,24 @@
         <v>11</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="38">
         <v>25074</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>8</v>
@@ -1928,36 +2041,39 @@
         <v>12</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="38">
         <v>26634</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="29" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="54">
         <v>13</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="56">
         <v>26978</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -1965,64 +2081,67 @@
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="45">
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="38">
         <v>26969</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="54">
         <v>15</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>146</v>
+      <c r="D17" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="E17" s="56">
         <v>26971</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="54">
         <v>16</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="56">
         <v>25075</v>
@@ -2034,39 +2153,44 @@
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="C19" s="45">
         <v>17</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="38"/>
+        <v>162</v>
+      </c>
+      <c r="E19" s="38">
+        <v>27054</v>
+      </c>
       <c r="F19" s="29" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="117" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="117" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>1</v>
@@ -2079,162 +2203,183 @@
         <v>WHO</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I24" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="K24" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="47">
         <v>4</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="49">
         <v>26972</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="47">
         <v>3</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" s="49">
         <v>26973</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H26" s="50"/>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="47">
         <v>2</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="49"/>
+        <v>162</v>
+      </c>
+      <c r="E27" s="67">
+        <v>27053</v>
+      </c>
       <c r="F27" s="50"/>
       <c r="G27" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="47">
         <v>1</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="49"/>
+        <v>162</v>
+      </c>
+      <c r="E28" s="68"/>
       <c r="F28" s="50"/>
       <c r="G28" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" s="50"/>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="47">
         <v>5</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="49">
-        <v>26979</v>
+        <v>27046</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="50"/>
+        <v>176</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>207</v>
+      </c>
       <c r="I29" s="50"/>
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
+      <c r="L29" s="29" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E27:E28"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="http://ldn-srv-bnk1/show_bug.cgi?id=26921"/>
     <hyperlink ref="E5" r:id="rId2" display="http://ldn-srv-bnk1/show_bug.cgi?id=26921"/>
     <hyperlink ref="B12" r:id="rId3" display="http://ldn-srv-bnk1/show_bug.cgi?id=24147"/>
     <hyperlink ref="B13" r:id="rId4" display="http://ldn-srv-bnk1/show_bug.cgi?id=25074"/>
     <hyperlink ref="B7" r:id="rId5" display="http://ldn-srv-bnk1/show_bug.cgi?id=26502"/>
-    <hyperlink ref="E12" r:id="rId6" display="http://ldn-srv-bnk1/show_bug.cgi?id=24147"/>
-    <hyperlink ref="E13" r:id="rId7" display="http://ldn-srv-bnk1/show_bug.cgi?id=24147"/>
-    <hyperlink ref="E7" r:id="rId8" display="http://ldn-srv-bnk1/show_bug.cgi?id=24147"/>
-    <hyperlink ref="E8" r:id="rId9" display="http://ldn-srv-bnk1/show_bug.cgi?id=26887"/>
-    <hyperlink ref="E14" r:id="rId10" display="http://ldn-srv-bnk1/show_bug.cgi?id=26634"/>
+    <hyperlink ref="E13" r:id="rId6" display="http://ldn-srv-bnk1/show_bug.cgi?id=24147"/>
+    <hyperlink ref="E8" r:id="rId7" display="http://ldn-srv-bnk1/show_bug.cgi?id=26887"/>
+    <hyperlink ref="E14" r:id="rId8" display="http://ldn-srv-bnk1/show_bug.cgi?id=26634"/>
+    <hyperlink ref="E12" r:id="rId9" display="http://ldn-srv-bnk1/show_bug.cgi?id=24147"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="66" orientation="landscape" r:id="rId11"/>
+  <pageSetup paperSize="8" scale="66" orientation="landscape" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2261,15 +2406,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="21"/>
@@ -2277,10 +2422,10 @@
     </row>
     <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="21">
         <v>2</v>
@@ -2289,10 +2434,10 @@
     </row>
     <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="21">
         <v>3</v>
@@ -2301,10 +2446,10 @@
     </row>
     <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="21">
         <v>1</v>
@@ -2313,48 +2458,48 @@
     </row>
     <row r="7" spans="1:8" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>133</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="21">
         <v>1</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="C8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>108</v>
-      </c>
       <c r="E8" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="21">
         <v>2</v>
@@ -2363,22 +2508,22 @@
     </row>
     <row r="9" spans="1:8" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>108</v>
-      </c>
       <c r="E9" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -2387,22 +2532,22 @@
     </row>
     <row r="10" spans="1:8" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>108</v>
-      </c>
       <c r="E10" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
@@ -2411,22 +2556,22 @@
     </row>
     <row r="11" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="F11" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="21">
         <v>2</v>
@@ -2435,22 +2580,22 @@
     </row>
     <row r="12" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="F12" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="21">
         <v>3</v>
@@ -2459,45 +2604,45 @@
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="F15" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="21">
         <v>1</v>
@@ -2506,22 +2651,22 @@
     </row>
     <row r="16" spans="1:8" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>137</v>
-      </c>
       <c r="F16" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="21">
         <v>1</v>
@@ -2530,22 +2675,22 @@
     </row>
     <row r="18" spans="1:8" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>142</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="21">
         <v>2</v>
@@ -2554,48 +2699,48 @@
     </row>
     <row r="19" spans="1:8" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>144</v>
-      </c>
       <c r="F19" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="21">
         <v>1</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>147</v>
-      </c>
       <c r="F20" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="27">
         <v>1</v>
@@ -2603,41 +2748,41 @@
     </row>
     <row r="21" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="F23" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="21">
         <v>2</v>
@@ -2667,36 +2812,36 @@
   <sheetData>
     <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2744,54 +2889,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
         <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="A4" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2802,137 +2947,137 @@
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="8">
         <v>4</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="8">
         <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="8">
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2943,91 +3088,91 @@
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="8">
         <v>17</v>
       </c>
       <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
         <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="8">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="8">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
+      <c r="A17" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="8">
         <v>20</v>
@@ -3049,57 +3194,57 @@
     </row>
     <row r="21" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="8">
         <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
     </row>
     <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="8">
         <v>24</v>
@@ -3121,16 +3266,16 @@
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -3144,41 +3289,41 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+    </row>
+    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-    </row>
-    <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -3251,32 +3396,32 @@
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
     </row>
     <row r="44" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -3286,26 +3431,26 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="8">
         <v>40</v>
@@ -3313,16 +3458,16 @@
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="8">
         <v>41</v>
@@ -3344,16 +3489,16 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" s="8">
         <v>44</v>
@@ -3367,58 +3512,58 @@
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="62"/>
+      <c r="A52" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="8">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
     </row>
     <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -3428,26 +3573,26 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
+      <c r="A57" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="60"/>
     </row>
     <row r="58" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="8">
         <v>48</v>
@@ -3461,26 +3606,26 @@
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62"/>
+      <c r="A60" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="60"/>
     </row>
     <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E61" s="8">
         <v>50</v>
@@ -3488,42 +3633,42 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="8">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="62"/>
+      <c r="A63" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="60"/>
     </row>
     <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64" s="8">
         <v>52</v>
@@ -3531,33 +3676,40 @@
     </row>
     <row r="65" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" s="8">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="59"/>
+      <c r="A66" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="66"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E66"/>
   <mergeCells count="19">
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A63:E63"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A11:E11"/>
@@ -3570,13 +3722,6 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" location="Absnum1','winuhbf','scrollbars=yes,directories=no,location=no,menubar=no,titlebar=no,toolbar=no,height=300,width=400');window.winuhbf.focus();" display="javascript:winuhbf=window.open('fld300.html - Absnum1','winuhbf','scrollbars=yes,directories=no,location=no,menubar=no,titlebar=no,toolbar=no,height=300,width=400');window.winuhbf.focus();"/>
